--- a/banco2/Cronograma.xlsx
+++ b/banco2/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonn\Music\ProyectoAplicaciones\banco\banco2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7583B5D5-6F41-490D-B7E5-69EC48E125FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB06960-7D5B-43A0-91CB-3119470FE022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D851E79F-0EC8-413F-BA33-BC3E1D19488B}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
   <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1625,6 +1625,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DC8B0536C95E064E88CE0CAD8E81D040" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a2ed2db04d5ad683b4f1f56c38f20818">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="568ff2eb-f0ac-45d7-9c52-fb9e94e3748f" xmlns:ns4="32f4ada5-4c4c-410b-8f8d-ed11b8870208" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9916794302b6d7084b94ac223620978e" ns3:_="" ns4:_="">
     <xsd:import namespace="568ff2eb-f0ac-45d7-9c52-fb9e94e3748f"/>
@@ -1827,22 +1842,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3816FD0C-59BC-406D-A050-D0F6162CA9AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="32f4ada5-4c4c-410b-8f8d-ed11b8870208"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="568ff2eb-f0ac-45d7-9c52-fb9e94e3748f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D012C04-2A3D-4DDD-B7CF-A149832CEBB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B01361-A172-4553-AB26-9CC1473BF418}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1859,29 +1884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D012C04-2A3D-4DDD-B7CF-A149832CEBB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3816FD0C-59BC-406D-A050-D0F6162CA9AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="32f4ada5-4c4c-410b-8f8d-ed11b8870208"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="568ff2eb-f0ac-45d7-9c52-fb9e94e3748f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>